--- a/output/1Y_P20_KFSDIV.xlsx
+++ b/output/1Y_P20_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D2" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.8109</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="F3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="H3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0605</v>
+        <v>-0.0643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.9322</v>
       </c>
       <c r="C4" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D4" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.2916</v>
+        <v>1401.48</v>
       </c>
       <c r="F4" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2421</v>
+        <v>14.2706</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.5846</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E5" s="1">
-        <v>2122.0533</v>
+        <v>2117.8073</v>
       </c>
       <c r="F5" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="H5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1373</v>
+        <v>14.1656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.2867</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E6" s="1">
-        <v>2916.6753</v>
+        <v>2910.8413</v>
       </c>
       <c r="F6" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="H6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7142</v>
+        <v>13.7417</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9045.075999999999</v>
+        <v>-9046.986699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0237</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.0645</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E7" s="1">
-        <v>3730.5635</v>
+        <v>3723.1032</v>
       </c>
       <c r="F7" s="1">
-        <v>775.8749</v>
+        <v>774.3012</v>
       </c>
       <c r="H7" s="1">
-        <v>48737.9472</v>
+        <v>48543.3084</v>
       </c>
       <c r="I7" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="J7" s="1">
-        <v>49692.8712</v>
+        <v>49496.3217</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4028</v>
+        <v>13.4297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10136.4177</v>
+        <v>-10136.1448</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08409999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.8083</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E8" s="1">
-        <v>4506.4384</v>
+        <v>4497.4044</v>
       </c>
       <c r="F8" s="1">
-        <v>734.0815</v>
+        <v>732.5921</v>
       </c>
       <c r="H8" s="1">
-        <v>62226.2538</v>
+        <v>61977.3805</v>
       </c>
       <c r="I8" s="1">
-        <v>818.5063</v>
+        <v>816.8685</v>
       </c>
       <c r="J8" s="1">
-        <v>63044.7601</v>
+        <v>62794.249</v>
       </c>
       <c r="K8" s="1">
-        <v>60136.4177</v>
+        <v>60136.1448</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3446</v>
+        <v>13.3713</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10136.4177</v>
+        <v>-10136.1448</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0562</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.5636</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E9" s="1">
-        <v>5240.5199</v>
+        <v>5229.9965</v>
       </c>
       <c r="F9" s="1">
-        <v>747.325</v>
+        <v>745.8093</v>
       </c>
       <c r="H9" s="1">
-        <v>71080.31630000001</v>
+        <v>70795.8478</v>
       </c>
       <c r="I9" s="1">
-        <v>682.0886</v>
+        <v>680.7238</v>
       </c>
       <c r="J9" s="1">
-        <v>71762.40489999999</v>
+        <v>71476.57150000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70272.8354</v>
+        <v>70272.2895</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4095</v>
+        <v>13.4364</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2027.8973</v>
+        <v>2023.832</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8108.5204</v>
+        <v>-8112.3128</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0176</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.1788</v>
       </c>
       <c r="C10" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D10" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E10" s="1">
-        <v>5987.845</v>
+        <v>5975.8058</v>
       </c>
       <c r="F10" s="1">
-        <v>807.6147</v>
+        <v>805.9023999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>78912.6113</v>
+        <v>78596.1881</v>
       </c>
       <c r="I10" s="1">
-        <v>2573.5682</v>
+        <v>2568.411</v>
       </c>
       <c r="J10" s="1">
-        <v>81486.17939999999</v>
+        <v>81164.599</v>
       </c>
       <c r="K10" s="1">
-        <v>80409.2531</v>
+        <v>80408.43429999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4287</v>
+        <v>13.4557</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10643.392</v>
+        <v>-10642.1027</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0034</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.5668</v>
       </c>
       <c r="C11" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E11" s="1">
-        <v>6795.4596</v>
+        <v>6781.7082</v>
       </c>
       <c r="F11" s="1">
-        <v>730.6609999999999</v>
+        <v>729.1109</v>
       </c>
       <c r="H11" s="1">
-        <v>98988.10129999999</v>
+        <v>98590.4396</v>
       </c>
       <c r="I11" s="1">
-        <v>1930.1761</v>
+        <v>1926.3082</v>
       </c>
       <c r="J11" s="1">
-        <v>100918.2774</v>
+        <v>100516.7478</v>
       </c>
       <c r="K11" s="1">
-        <v>91052.6452</v>
+        <v>91050.537</v>
       </c>
       <c r="L11" s="1">
-        <v>13.399</v>
+        <v>13.4259</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10643.392</v>
+        <v>-10642.1027</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1031</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.962</v>
       </c>
       <c r="C12" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D12" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E12" s="1">
-        <v>7526.1206</v>
+        <v>7510.8191</v>
       </c>
       <c r="F12" s="1">
-        <v>762.3114</v>
+        <v>760.6935</v>
       </c>
       <c r="H12" s="1">
-        <v>105079.6956</v>
+        <v>104656.5047</v>
       </c>
       <c r="I12" s="1">
-        <v>1286.7841</v>
+        <v>1284.2055</v>
       </c>
       <c r="J12" s="1">
-        <v>106366.4797</v>
+        <v>105940.7102</v>
       </c>
       <c r="K12" s="1">
-        <v>101696.0372</v>
+        <v>101692.6398</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5124</v>
+        <v>13.5395</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3057.9568</v>
+        <v>3051.7687</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7585.4352</v>
+        <v>-7590.334</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.041</v>
+        <v>-0.0414</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.2659</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E13" s="1">
-        <v>8288.432000000001</v>
+        <v>8271.512699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1117.0276</v>
+        <v>1114.1834</v>
       </c>
       <c r="H13" s="1">
-        <v>101665.0781</v>
+        <v>101254.8952</v>
       </c>
       <c r="I13" s="1">
-        <v>3701.3489</v>
+        <v>3693.8714</v>
       </c>
       <c r="J13" s="1">
-        <v>105366.427</v>
+        <v>104948.7666</v>
       </c>
       <c r="K13" s="1">
-        <v>112339.4293</v>
+        <v>112334.7425</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5538</v>
+        <v>13.5809</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13701.3489</v>
+        <v>-13693.8714</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0945</v>
+        <v>-0.0948</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.4103</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E14" s="1">
-        <v>9405.4596</v>
+        <v>9385.696099999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9405.4596</v>
+        <v>-9385.696099999999</v>
       </c>
       <c r="H14" s="1">
-        <v>116724.5753</v>
+        <v>116246.539</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>116724.5753</v>
+        <v>116246.539</v>
       </c>
       <c r="K14" s="1">
-        <v>126040.7781</v>
+        <v>126028.6139</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4008</v>
+        <v>13.4277</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116724.5753</v>
+        <v>116246.539</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D2" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.8109</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="F3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0605</v>
+        <v>-0.0643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.9322</v>
       </c>
       <c r="C4" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D4" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.2916</v>
+        <v>1401.48</v>
       </c>
       <c r="F4" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2421</v>
+        <v>14.2706</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.5846</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E5" s="1">
-        <v>2122.0533</v>
+        <v>2117.8073</v>
       </c>
       <c r="F5" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1373</v>
+        <v>14.1656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.2867</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E6" s="1">
-        <v>2916.6753</v>
+        <v>2910.8413</v>
       </c>
       <c r="F6" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7142</v>
+        <v>13.7417</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9045.075999999999</v>
+        <v>-9046.986699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0237</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.0645</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E7" s="1">
-        <v>3730.5635</v>
+        <v>3723.1032</v>
       </c>
       <c r="F7" s="1">
-        <v>838.5261</v>
+        <v>836.7019</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48737.9472</v>
+        <v>48543.3084</v>
       </c>
       <c r="I7" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="J7" s="1">
-        <v>49692.8712</v>
+        <v>49496.3217</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4028</v>
+        <v>13.4297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10954.924</v>
+        <v>-10953.0133</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08409999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.8083</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E8" s="1">
-        <v>4569.0896</v>
+        <v>4559.8051</v>
       </c>
       <c r="F8" s="1">
-        <v>500.3252</v>
+        <v>519.7627</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="K8" s="1">
-        <v>60954.924</v>
+        <v>60953.0133</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3407</v>
+        <v>13.3675</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6908.6399</v>
+        <v>-7191.4374</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.5636</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E9" s="1">
-        <v>5069.4148</v>
+        <v>5079.5678</v>
       </c>
       <c r="F9" s="1">
-        <v>828.7243999999999</v>
+        <v>830.3794</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68759.51420000001</v>
+        <v>68759.5695</v>
       </c>
       <c r="I9" s="1">
-        <v>3091.3601</v>
+        <v>2808.5626</v>
       </c>
       <c r="J9" s="1">
-        <v>71850.8743</v>
+        <v>71568.1321</v>
       </c>
       <c r="K9" s="1">
-        <v>67863.56389999999</v>
+        <v>68144.4507</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3869</v>
+        <v>13.4154</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9184.395500000001</v>
+        <v>-9233.6078</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.017</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.1788</v>
       </c>
       <c r="C10" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D10" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E10" s="1">
-        <v>5898.1391</v>
+        <v>5909.9472</v>
       </c>
       <c r="F10" s="1">
-        <v>931.0107</v>
+        <v>932.9104</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77730.3961</v>
+        <v>77729.9893</v>
       </c>
       <c r="I10" s="1">
-        <v>3906.9646</v>
+        <v>3574.9548</v>
       </c>
       <c r="J10" s="1">
-        <v>81637.3606</v>
+        <v>81304.94409999999</v>
       </c>
       <c r="K10" s="1">
-        <v>79104.0497</v>
+        <v>79429.97070000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4117</v>
+        <v>13.44</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12269.6039</v>
+        <v>-12319.2684</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.5668</v>
       </c>
       <c r="C11" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E11" s="1">
-        <v>6829.1498</v>
+        <v>6842.8576</v>
       </c>
       <c r="F11" s="1">
-        <v>35.7759</v>
+        <v>35.8096</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>99478.86</v>
+        <v>99479.4106</v>
       </c>
       <c r="I11" s="1">
-        <v>1637.3606</v>
+        <v>1255.6864</v>
       </c>
       <c r="J11" s="1">
-        <v>101116.2206</v>
+        <v>100735.097</v>
       </c>
       <c r="K11" s="1">
-        <v>91373.6537</v>
+        <v>91749.23910000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3799</v>
+        <v>13.408</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-521.14</v>
+        <v>-522.6771</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1034</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.962</v>
       </c>
       <c r="C12" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D12" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E12" s="1">
-        <v>6864.9257</v>
+        <v>6878.6672</v>
       </c>
       <c r="F12" s="1">
-        <v>1013.6017</v>
+        <v>1015.6353</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95848.0929</v>
+        <v>95848.0365</v>
       </c>
       <c r="I12" s="1">
-        <v>11116.2206</v>
+        <v>10733.0093</v>
       </c>
       <c r="J12" s="1">
-        <v>106964.3136</v>
+        <v>106581.0458</v>
       </c>
       <c r="K12" s="1">
-        <v>91894.79369999999</v>
+        <v>92271.91620000001</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3861</v>
+        <v>13.4142</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3073.1174</v>
+        <v>3079.2859</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11078.7896</v>
+        <v>-11129.4516</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0374</v>
+        <v>-0.0375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.2659</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E13" s="1">
-        <v>7878.5274</v>
+        <v>7894.3025</v>
       </c>
       <c r="F13" s="1">
-        <v>1633.5883</v>
+        <v>1595.0171</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>96637.22960000001</v>
+        <v>96637.31419999999</v>
       </c>
       <c r="I13" s="1">
-        <v>10037.431</v>
+        <v>9603.557699999999</v>
       </c>
       <c r="J13" s="1">
-        <v>106674.6606</v>
+        <v>106240.8719</v>
       </c>
       <c r="K13" s="1">
-        <v>106046.7008</v>
+        <v>106480.6537</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4602</v>
+        <v>13.4883</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-20037.431</v>
+        <v>-19603.5577</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.08799999999999999</v>
+        <v>-0.0887</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.4103</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E14" s="1">
-        <v>9512.1158</v>
+        <v>9489.319600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9512.1158</v>
+        <v>-9489.319600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118048.2101</v>
+        <v>117529.9675</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118048.2101</v>
+        <v>117529.9675</v>
       </c>
       <c r="K14" s="1">
-        <v>126084.1318</v>
+        <v>126084.2115</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2551</v>
+        <v>13.287</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118048.2101</v>
+        <v>117529.9675</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D2" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.8109</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="F3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0605</v>
+        <v>-0.0643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.9322</v>
       </c>
       <c r="C4" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D4" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.2916</v>
+        <v>1401.48</v>
       </c>
       <c r="F4" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2421</v>
+        <v>14.2706</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.5846</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E5" s="1">
-        <v>2122.0533</v>
+        <v>2117.8073</v>
       </c>
       <c r="F5" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1373</v>
+        <v>14.1656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.2867</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E6" s="1">
-        <v>2916.6753</v>
+        <v>2910.8413</v>
       </c>
       <c r="F6" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7142</v>
+        <v>13.7417</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9045.075999999999</v>
+        <v>-9046.986699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0237</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.0645</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E7" s="1">
-        <v>3730.5635</v>
+        <v>3723.1032</v>
       </c>
       <c r="F7" s="1">
-        <v>838.5261</v>
+        <v>836.7019</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48737.9472</v>
+        <v>48543.3084</v>
       </c>
       <c r="I7" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="J7" s="1">
-        <v>49692.8712</v>
+        <v>49496.3217</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4028</v>
+        <v>13.4297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10954.924</v>
+        <v>-10953.0133</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08409999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.8083</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E8" s="1">
-        <v>4569.0896</v>
+        <v>4559.8051</v>
       </c>
       <c r="F8" s="1">
-        <v>577.0032</v>
+        <v>596.5944</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="K8" s="1">
-        <v>60954.924</v>
+        <v>60953.0133</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3407</v>
+        <v>13.3675</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7967.4338</v>
+        <v>-8254.480100000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.5636</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E9" s="1">
-        <v>5146.0928</v>
+        <v>5156.3994</v>
       </c>
       <c r="F9" s="1">
-        <v>856.3024</v>
+        <v>858.0125</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69799.545</v>
+        <v>69799.6011</v>
       </c>
       <c r="I9" s="1">
-        <v>2032.5662</v>
+        <v>1745.5199</v>
       </c>
       <c r="J9" s="1">
-        <v>71832.11109999999</v>
+        <v>71545.1211</v>
       </c>
       <c r="K9" s="1">
-        <v>68922.3578</v>
+        <v>69207.4933</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3931</v>
+        <v>13.4217</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9558.452600000001</v>
+        <v>-9609.164500000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0172</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.1788</v>
       </c>
       <c r="C10" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D10" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E10" s="1">
-        <v>6002.3952</v>
+        <v>6014.412</v>
       </c>
       <c r="F10" s="1">
-        <v>946.5288</v>
+        <v>919.0588</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79104.3662</v>
+        <v>79103.9522</v>
       </c>
       <c r="I10" s="1">
-        <v>2474.1136</v>
+        <v>2136.3554</v>
       </c>
       <c r="J10" s="1">
-        <v>81578.4798</v>
+        <v>81240.3076</v>
       </c>
       <c r="K10" s="1">
-        <v>80536.9007</v>
+        <v>80868.5701</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4175</v>
+        <v>13.4458</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12474.1136</v>
+        <v>-12136.3554</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0031</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.5668</v>
       </c>
       <c r="C11" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E11" s="1">
-        <v>6948.924</v>
+        <v>6933.4708</v>
       </c>
       <c r="F11" s="1">
-        <v>72.5401</v>
+        <v>102.0482</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>101223.5863</v>
+        <v>100796.7184</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>101223.5863</v>
+        <v>100796.7184</v>
       </c>
       <c r="K11" s="1">
-        <v>93011.0143</v>
+        <v>93004.9255</v>
       </c>
       <c r="L11" s="1">
-        <v>13.385</v>
+        <v>13.4139</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-1056.6778</v>
+        <v>-1489.4951</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1053</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.962</v>
       </c>
       <c r="C12" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D12" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E12" s="1">
-        <v>7021.4642</v>
+        <v>7035.519</v>
       </c>
       <c r="F12" s="1">
-        <v>1057.0107</v>
+        <v>1059.1312</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98033.6826</v>
+        <v>98033.62480000001</v>
       </c>
       <c r="I12" s="1">
-        <v>8943.322200000001</v>
+        <v>8510.5049</v>
       </c>
       <c r="J12" s="1">
-        <v>106977.0048</v>
+        <v>106544.1297</v>
       </c>
       <c r="K12" s="1">
-        <v>94067.6921</v>
+        <v>94494.4206</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3972</v>
+        <v>13.4311</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3127.0158</v>
+        <v>3120.0619</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11630.967</v>
+        <v>-11697.1841</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0382</v>
+        <v>-0.0384</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.2659</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E13" s="1">
-        <v>8078.4748</v>
+        <v>8094.6502</v>
       </c>
       <c r="F13" s="1">
-        <v>1411.4215</v>
+        <v>1367.9932</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>99089.7643</v>
+        <v>99089.851</v>
       </c>
       <c r="I13" s="1">
-        <v>7312.3552</v>
+        <v>6813.3208</v>
       </c>
       <c r="J13" s="1">
-        <v>106402.1195</v>
+        <v>105903.1718</v>
       </c>
       <c r="K13" s="1">
-        <v>108825.6749</v>
+        <v>109311.6666</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4711</v>
+        <v>13.5042</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-17312.3552</v>
+        <v>-16813.3208</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.09039999999999999</v>
+        <v>-0.09130000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.4103</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E14" s="1">
-        <v>9489.8963</v>
+        <v>9462.643400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9489.8963</v>
+        <v>-9462.643400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117772.4605</v>
+        <v>117199.5702</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>117772.4605</v>
+        <v>117199.5702</v>
       </c>
       <c r="K14" s="1">
-        <v>126138.0301</v>
+        <v>126124.9874</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2918</v>
+        <v>13.3287</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117772.4605</v>
+        <v>117199.5702</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0118</v>
+        <v>0.0112</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D2" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.8109</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="F3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0605</v>
+        <v>-0.0643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.9322</v>
       </c>
       <c r="C4" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D4" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.2916</v>
+        <v>1401.48</v>
       </c>
       <c r="F4" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2421</v>
+        <v>14.2706</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.5846</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E5" s="1">
-        <v>2122.0533</v>
+        <v>2117.8073</v>
       </c>
       <c r="F5" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1373</v>
+        <v>14.1656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.2867</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E6" s="1">
-        <v>2916.6753</v>
+        <v>2910.8413</v>
       </c>
       <c r="F6" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7142</v>
+        <v>13.7417</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9045.075999999999</v>
+        <v>-9046.986699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0237</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.0645</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E7" s="1">
-        <v>3730.5635</v>
+        <v>3723.1032</v>
       </c>
       <c r="F7" s="1">
-        <v>838.5261</v>
+        <v>836.7019</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48737.9472</v>
+        <v>48543.3084</v>
       </c>
       <c r="I7" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="J7" s="1">
-        <v>49692.8712</v>
+        <v>49496.3217</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4028</v>
+        <v>13.4297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10954.924</v>
+        <v>-10953.0133</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08409999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.8083</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E8" s="1">
-        <v>4569.0896</v>
+        <v>4559.8051</v>
       </c>
       <c r="F8" s="1">
-        <v>654.9678</v>
+        <v>674.7151</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="K8" s="1">
-        <v>60954.924</v>
+        <v>60953.0133</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3407</v>
+        <v>13.3675</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9043.992</v>
+        <v>-9335.358399999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.5636</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E9" s="1">
-        <v>5224.0574</v>
+        <v>5234.5202</v>
       </c>
       <c r="F9" s="1">
-        <v>807.7507000000001</v>
+        <v>784.6956</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70857.02529999999</v>
+        <v>70857.08229999999</v>
       </c>
       <c r="I9" s="1">
-        <v>956.008</v>
+        <v>664.6416</v>
       </c>
       <c r="J9" s="1">
-        <v>71813.03320000001</v>
+        <v>71521.7239</v>
       </c>
       <c r="K9" s="1">
-        <v>69998.9161</v>
+        <v>70288.3716</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3993</v>
+        <v>13.4279</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8899.917600000001</v>
+        <v>-8612.7294</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0175</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.1788</v>
       </c>
       <c r="C10" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D10" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E10" s="1">
-        <v>6031.8082</v>
+        <v>6019.2158</v>
       </c>
       <c r="F10" s="1">
-        <v>914.8094</v>
+        <v>912.6641</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79491.99340000001</v>
+        <v>79167.1341</v>
       </c>
       <c r="I10" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="J10" s="1">
-        <v>81548.0837</v>
+        <v>81219.04640000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80954.924</v>
+        <v>80953.01330000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4213</v>
+        <v>13.4491</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12056.0903</v>
+        <v>-12051.9123</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0032</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.5668</v>
       </c>
       <c r="C11" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E11" s="1">
-        <v>6946.6176</v>
+        <v>6931.8799</v>
       </c>
       <c r="F11" s="1">
-        <v>235.6136</v>
+        <v>264.7279</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101189.9889</v>
+        <v>100773.591</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>101189.9889</v>
+        <v>100773.591</v>
       </c>
       <c r="K11" s="1">
-        <v>93011.0143</v>
+        <v>93004.9255</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3894</v>
+        <v>13.417</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-3432.1365</v>
+        <v>-3863.968</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1053</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.962</v>
       </c>
       <c r="C12" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D12" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E12" s="1">
-        <v>7182.2312</v>
+        <v>7196.6078</v>
       </c>
       <c r="F12" s="1">
-        <v>1102.2801</v>
+        <v>1104.4914</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100278.312</v>
+        <v>100278.2529</v>
       </c>
       <c r="I12" s="1">
-        <v>6567.8635</v>
+        <v>6136.032</v>
       </c>
       <c r="J12" s="1">
-        <v>106846.1755</v>
+        <v>106414.2849</v>
       </c>
       <c r="K12" s="1">
-        <v>96443.1508</v>
+        <v>96868.8936</v>
       </c>
       <c r="L12" s="1">
-        <v>13.428</v>
+        <v>13.4604</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3125.9779</v>
+        <v>3119.346</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12264.0568</v>
+        <v>-12332.4888</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0391</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.2659</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E13" s="1">
-        <v>8284.5113</v>
+        <v>8301.099200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1166.1441</v>
+        <v>1123.1067</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>101616.9871</v>
+        <v>101617.076</v>
       </c>
       <c r="I13" s="1">
-        <v>4303.8068</v>
+        <v>3803.5432</v>
       </c>
       <c r="J13" s="1">
-        <v>105920.7938</v>
+        <v>105420.6192</v>
       </c>
       <c r="K13" s="1">
-        <v>111833.1855</v>
+        <v>112320.7284</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4991</v>
+        <v>13.5308</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14303.8068</v>
+        <v>-13803.5432</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0935</v>
+        <v>-0.0944</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.4103</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E14" s="1">
-        <v>9450.6554</v>
+        <v>9424.205900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9450.6554</v>
+        <v>-9424.205900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117285.4685</v>
+        <v>116723.5027</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>117285.4685</v>
+        <v>116723.5027</v>
       </c>
       <c r="K14" s="1">
-        <v>126136.9922</v>
+        <v>126124.2715</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3469</v>
+        <v>13.383</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117285.4685</v>
+        <v>116723.5027</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D2" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.8109</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="F3" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9394.531000000001</v>
+        <v>9356.9804</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0605</v>
+        <v>-0.0643</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.9322</v>
       </c>
       <c r="C4" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D4" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E4" s="1">
-        <v>1404.2916</v>
+        <v>1401.48</v>
       </c>
       <c r="F4" s="1">
-        <v>717.7617</v>
+        <v>716.3271999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19564.8716</v>
+        <v>19486.5988</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.2421</v>
+        <v>14.2706</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.5846</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E5" s="1">
-        <v>2122.0533</v>
+        <v>2117.8073</v>
       </c>
       <c r="F5" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>26705.1925</v>
+        <v>26598.3887</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1373</v>
+        <v>14.1656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.2867</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E6" s="1">
-        <v>2916.6753</v>
+        <v>2910.8413</v>
       </c>
       <c r="F6" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35836.3149</v>
+        <v>35693.0267</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7142</v>
+        <v>13.7417</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9045.075999999999</v>
+        <v>-9046.986699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0237</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.0645</v>
       </c>
       <c r="C7" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D7" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E7" s="1">
-        <v>3730.5635</v>
+        <v>3723.1032</v>
       </c>
       <c r="F7" s="1">
-        <v>838.5261</v>
+        <v>836.7019</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48737.9472</v>
+        <v>48543.3084</v>
       </c>
       <c r="I7" s="1">
-        <v>954.924</v>
+        <v>953.0133</v>
       </c>
       <c r="J7" s="1">
-        <v>49692.8712</v>
+        <v>49496.3217</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4028</v>
+        <v>13.4297</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10954.924</v>
+        <v>-10953.0133</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08409999999999999</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.8083</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E8" s="1">
-        <v>4569.0896</v>
+        <v>4559.8051</v>
       </c>
       <c r="F8" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63091.3601</v>
+        <v>62837.3055</v>
       </c>
       <c r="K8" s="1">
-        <v>60954.924</v>
+        <v>60953.0133</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3407</v>
+        <v>13.3675</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.5636</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E9" s="1">
-        <v>5293.2917</v>
+        <v>5282.5573</v>
       </c>
       <c r="F9" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71796.0916</v>
+        <v>71507.3368</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71796.0916</v>
+        <v>71507.3368</v>
       </c>
       <c r="K9" s="1">
-        <v>70954.924</v>
+        <v>70953.01330000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4047</v>
+        <v>13.4316</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7943.9097</v>
+        <v>-7948.0877</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0177</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.1788</v>
       </c>
       <c r="C10" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D10" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E10" s="1">
-        <v>6030.5591</v>
+        <v>6018.3492</v>
       </c>
       <c r="F10" s="1">
-        <v>914.8094</v>
+        <v>912.6641</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79475.5324</v>
+        <v>79155.73540000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2056.0903</v>
+        <v>2051.9123</v>
       </c>
       <c r="J10" s="1">
-        <v>81531.6228</v>
+        <v>81207.6477</v>
       </c>
       <c r="K10" s="1">
-        <v>80954.924</v>
+        <v>80953.01330000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4241</v>
+        <v>13.451</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12056.0903</v>
+        <v>-12051.9123</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0032</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.5668</v>
       </c>
       <c r="C11" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E11" s="1">
-        <v>6945.3685</v>
+        <v>6931.0133</v>
       </c>
       <c r="F11" s="1">
-        <v>401.9704</v>
+        <v>431.0328</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101171.7943</v>
+        <v>100760.9917</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>101171.7943</v>
+        <v>100760.9917</v>
       </c>
       <c r="K11" s="1">
-        <v>93011.0143</v>
+        <v>93004.9255</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3918</v>
+        <v>13.4187</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5855.4224</v>
+        <v>-6291.3542</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1053</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.962</v>
       </c>
       <c r="C12" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D12" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E12" s="1">
-        <v>7347.3389</v>
+        <v>7362.046</v>
       </c>
       <c r="F12" s="1">
-        <v>1013.0768</v>
+        <v>979.8889</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102583.5461</v>
+        <v>102583.4857</v>
       </c>
       <c r="I12" s="1">
-        <v>4144.5776</v>
+        <v>3708.6458</v>
       </c>
       <c r="J12" s="1">
-        <v>106728.1237</v>
+        <v>106292.1315</v>
       </c>
       <c r="K12" s="1">
-        <v>98866.43670000001</v>
+        <v>99296.2798</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4561</v>
+        <v>13.4876</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3125.4158</v>
+        <v>3118.956</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11019.1617</v>
+        <v>-10589.6898</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.04</v>
+        <v>-0.0403</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.2659</v>
       </c>
       <c r="C13" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D13" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E13" s="1">
-        <v>8360.4157</v>
+        <v>8341.9349</v>
       </c>
       <c r="F13" s="1">
-        <v>1070.0736</v>
+        <v>1067.4062</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>102548.0227</v>
+        <v>102116.9624</v>
       </c>
       <c r="I13" s="1">
-        <v>3125.4158</v>
+        <v>3118.956</v>
       </c>
       <c r="J13" s="1">
-        <v>105673.4385</v>
+        <v>105235.9184</v>
       </c>
       <c r="K13" s="1">
-        <v>113011.0143</v>
+        <v>113004.9255</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5174</v>
+        <v>13.5466</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13125.4158</v>
+        <v>-13118.956</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.09470000000000001</v>
+        <v>-0.0951</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.4103</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E14" s="1">
-        <v>9430.489299999999</v>
+        <v>9409.3411</v>
       </c>
       <c r="F14" s="1">
-        <v>-9430.489299999999</v>
+        <v>-9409.3411</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117035.2011</v>
+        <v>116539.3948</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>117035.2011</v>
+        <v>116539.3948</v>
       </c>
       <c r="K14" s="1">
-        <v>126136.4302</v>
+        <v>126123.8815</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3754</v>
+        <v>13.4041</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117035.2011</v>
+        <v>116539.3948</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0118</v>
+        <v>0.0113</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4008</v>
+        <v>13.4277</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2551</v>
+        <v>13.287</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2918</v>
+        <v>13.3287</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3469</v>
+        <v>13.383</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3754</v>
+        <v>13.4041</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1439</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0735</v>
+        <v>-0.0859</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0608</v>
+        <v>-0.07340000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0629</v>
+        <v>-0.0761</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0673</v>
+        <v>-0.0804</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0696</v>
+        <v>-0.0822</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2191</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2125</v>
+        <v>0.2132</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2096</v>
+        <v>0.2107</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2117</v>
+        <v>0.2126</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2131</v>
+        <v>0.2141</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2138</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.7496</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.4416</v>
+        <v>-0.4981</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.387</v>
+        <v>-0.4448</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3932</v>
+        <v>-0.4537</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.4111</v>
+        <v>-0.4706</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.4208</v>
+        <v>-0.478</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0508</v>
+        <v>-0.0581</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0311</v>
+        <v>-0.0392</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0351</v>
+        <v>-0.0439</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0423</v>
+        <v>-0.0509</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0459</v>
+        <v>-0.0535</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6040.7781</v>
+        <v>6028.6139</v>
       </c>
       <c r="D8" s="1">
-        <v>6084.1318</v>
+        <v>6084.2115</v>
       </c>
       <c r="E8" s="1">
-        <v>6138.0301</v>
+        <v>6124.9874</v>
       </c>
       <c r="F8" s="1">
-        <v>6136.9922</v>
+        <v>6124.2715</v>
       </c>
       <c r="G8" s="1">
-        <v>6136.4302</v>
+        <v>6123.8815</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P20_KFSDIV.xlsx
+++ b/output/1Y_P20_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7644.7484</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9226</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9329</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9307</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9273</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
